--- a/2-calidad/3-documentos-gestion-calidad/FICHAS Y FORMULARIOS TIPO/ANEXO I PE 8.6 - 2 Roles & Articulacion.xlsx
+++ b/2-calidad/3-documentos-gestion-calidad/FICHAS Y FORMULARIOS TIPO/ANEXO I PE 8.6 - 2 Roles & Articulacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="C2CB" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="6720"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="6720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos Claves y de Apoyo" sheetId="1" r:id="rId1"/>
@@ -1191,6 +1191,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1238,24 +1256,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1664,7 +1664,7 @@
       <c r="A8" s="20">
         <v>-20</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1684,7 +1684,7 @@
       <c r="A9" s="20">
         <v>-18</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="12" t="s">
         <v>42</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="A10" s="20">
         <v>-15</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="12" t="s">
         <v>51</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="A11" s="20">
         <v>-13</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="A12" s="20">
         <v>-4</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="A13" s="20">
         <v>-11</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="12" t="s">
         <v>59</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="A14" s="20">
         <v>-9</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="12" t="s">
         <v>58</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="A15" s="20">
         <v>-2</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="12" t="s">
         <v>52</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="A16" s="20">
         <v>-12</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1824,7 +1824,7 @@
       <c r="A17" s="20">
         <v>-8</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="12" t="s">
         <v>57</v>
       </c>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="12" t="s">
         <v>64</v>
       </c>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
-      <c r="B19" s="36"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="12" t="s">
         <v>63</v>
       </c>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
-      <c r="B20" s="36"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="12" t="s">
         <v>65</v>
       </c>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
-      <c r="B21" s="36"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="12" t="s">
         <v>67</v>
       </c>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
-      <c r="B22" s="36"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="12" t="s">
         <v>68</v>
       </c>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
-      <c r="B23" s="36"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="12" t="s">
         <v>69</v>
       </c>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
-      <c r="B24" s="36"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="12" t="s">
         <v>70</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="A25" s="20">
         <v>-6</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="12" t="s">
         <v>56</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="A26" s="20">
         <v>-5</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="12" t="s">
         <v>16</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="A27" s="20">
         <v>-3</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="12" t="s">
         <v>18</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="A28" s="20">
         <v>-1</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="12" t="s">
         <v>19</v>
       </c>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
-      <c r="B29" s="36"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="12" t="s">
         <v>61</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="A30" s="20">
         <v>-1</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="12" t="s">
         <v>62</v>
       </c>
@@ -2053,10 +2053,10 @@
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="48" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -2073,8 +2073,8 @@
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
@@ -2089,8 +2089,8 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="13" t="s">
         <v>23</v>
       </c>
@@ -2103,8 +2103,8 @@
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="13" t="s">
         <v>24</v>
       </c>
@@ -2119,8 +2119,8 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="13" t="s">
         <v>18</v>
       </c>
@@ -2135,8 +2135,8 @@
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="13" t="s">
         <v>71</v>
       </c>
@@ -2151,8 +2151,8 @@
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="13" t="s">
         <v>25</v>
       </c>
@@ -2167,8 +2167,8 @@
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="13" t="s">
         <v>60</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="A39" s="21">
         <v>2</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="44" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -2204,7 +2204,7 @@
       <c r="A40" s="21">
         <v>3</v>
       </c>
-      <c r="B40" s="39"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="14" t="s">
         <v>27</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="A41" s="21">
         <v>4</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="14" t="s">
         <v>54</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="A42" s="21">
         <v>5</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="16" t="s">
         <v>55</v>
       </c>
@@ -2254,62 +2254,62 @@
       <c r="A43" s="21">
         <v>6</v>
       </c>
-      <c r="B43" s="40"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="35"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="40"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="40"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="40"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>7</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="48"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="22"/>
       <c r="G47" s="12"/>
       <c r="H47" s="15"/>
@@ -2318,41 +2318,41 @@
       <c r="A48" s="21">
         <v>8</v>
       </c>
-      <c r="B48" s="39"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="49"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="22"/>
       <c r="G48" s="12"/>
       <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="41"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="50"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="22"/>
       <c r="G49" s="12"/>
       <c r="H49" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="E43:E46"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="B8:B30"/>
     <mergeCell ref="B39:B49"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="D43:D46"/>
     <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="E43:E46"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E47">
@@ -2534,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
